--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vippo\PycharmProjects\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C088D-CDBE-49F8-B078-43417CD29B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F429864-DC47-4F3F-81C6-D79CE5E377A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_data" sheetId="1" r:id="rId1"/>
@@ -30336,7 +30336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -30855,7 +30855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vippo\PycharmProjects\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B4E164-0587-4593-8155-FD64E0D0000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B520C1-313F-4087-AD0A-0296092A9F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="570" windowWidth="21015" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeline_data" sheetId="1" r:id="rId1"/>
@@ -707,9 +707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G881"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -20972,7 +20979,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21411,7 +21418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
